--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile specifically for recording the patient's age at stroke onset.</t>
+    <t>Profile specifically for recording the patient's age at stroke onset. The value is represented as an integer (age in years) with a fixed SNOMED CT code indicating that this observation represents age at onset.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="496">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,10 +84,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile specifically for recording the patient's age at stroke onset. The value is represented as an integer (age in years) with a fixed SNOMED CT code indicating that this observation represents age at onset.</t>
+    <t>Profile for recording the patient’s age at the time of stroke onset as a simple integer value in years. The Observation.code is fixed to the SNOMED CT observable entity “Age at onset of clinical finding,” ensuring a clear and interoperable semantic meaning.
+The age at onset may be derived from date of birth and an onset/reference timepoint (e.g., symptom onset, last known well, or discovery time depending on local policy). This profile records the resulting age value, not the derivation method; if the derivation is clinically important, implementers should capture the underlying reference timepoint(s) and provenance separately.</t>
   </si>
   <si>
     <t>Purpose</t>
+  </si>
+  <si>
+    <t>Record age-at-onset in years as a simple, computable value used in etiologic assessment and risk stratification.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -789,10 +793,10 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+    <t>Age-at-onset concept.</t>
+  </si>
+  <si>
+    <t>Fixed to the SNOMED CT observable entity indicating the observation represents age at onset.</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
@@ -1018,10 +1022,10 @@
 </t>
   </si>
   <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+    <t>Age in completed years.</t>
+  </si>
+  <si>
+    <t>Integer age in years at the chosen onset reference point (per local operational definition).</t>
   </si>
   <si>
     <t>- An observation may have:
@@ -1550,6 +1554,9 @@
   </si>
   <si>
     <t>Actual component result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
     <t>Used when observation has a set of component observations:
@@ -1846,60 +1853,62 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1963,149 +1972,149 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>20</v>
@@ -2117,16 +2126,16 @@
         <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2176,34 +2185,34 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>20</v>
@@ -2211,10 +2220,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2222,10 +2231,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -2234,19 +2243,19 @@
         <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2296,13 +2305,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -2331,10 +2340,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2342,10 +2351,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -2354,16 +2363,16 @@
         <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2414,19 +2423,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -2449,10 +2458,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2460,31 +2469,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2534,19 +2543,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2569,10 +2578,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2580,10 +2589,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2595,16 +2604,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2630,13 +2639,13 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -2654,19 +2663,19 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2689,21 +2698,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2715,16 +2724,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2774,19 +2783,19 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>20</v>
@@ -2801,7 +2810,7 @@
         <v>20</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>20</v>
@@ -2809,21 +2818,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -2835,16 +2844,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2894,16 +2903,16 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>20</v>
@@ -2921,7 +2930,7 @@
         <v>20</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>20</v>
@@ -2929,21 +2938,21 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2955,16 +2964,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3014,19 +3023,19 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -3041,7 +3050,7 @@
         <v>20</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>20</v>
@@ -3049,45 +3058,45 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -3136,19 +3145,19 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -3163,7 +3172,7 @@
         <v>20</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>20</v>
@@ -3171,10 +3180,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3182,10 +3191,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -3194,20 +3203,20 @@
         <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3256,34 +3265,34 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>20</v>
@@ -3291,10 +3300,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3302,10 +3311,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -3314,19 +3323,19 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3376,22 +3385,22 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>20</v>
@@ -3403,7 +3412,7 @@
         <v>20</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>20</v>
@@ -3411,21 +3420,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -3434,20 +3443,20 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3496,22 +3505,22 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>20</v>
@@ -3520,10 +3529,10 @@
         <v>20</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>20</v>
@@ -3531,10 +3540,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3542,10 +3551,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -3557,13 +3566,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3614,34 +3623,34 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>20</v>
@@ -3649,10 +3658,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3660,10 +3669,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -3675,13 +3684,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3732,16 +3741,16 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>20</v>
@@ -3759,7 +3768,7 @@
         <v>20</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -3767,21 +3776,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -3793,16 +3802,16 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3852,19 +3861,19 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>20</v>
@@ -3879,7 +3888,7 @@
         <v>20</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>20</v>
@@ -3887,45 +3896,45 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3974,19 +3983,19 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>20</v>
@@ -4001,7 +4010,7 @@
         <v>20</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>20</v>
@@ -4009,10 +4018,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4020,10 +4029,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -4032,16 +4041,16 @@
         <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4092,19 +4101,19 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>20</v>
@@ -4119,7 +4128,7 @@
         <v>20</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>20</v>
@@ -4127,10 +4136,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4138,10 +4147,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -4150,16 +4159,16 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4186,13 +4195,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -4210,19 +4219,19 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>20</v>
@@ -4237,7 +4246,7 @@
         <v>20</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4245,10 +4254,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4256,10 +4265,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -4271,13 +4280,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4328,19 +4337,19 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>20</v>
@@ -4355,7 +4364,7 @@
         <v>20</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4363,42 +4372,42 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4448,22 +4457,22 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
@@ -4472,10 +4481,10 @@
         <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4483,10 +4492,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4494,34 +4503,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4531,7 +4540,7 @@
         <v>20</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>20</v>
@@ -4546,13 +4555,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4570,34 +4579,34 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4605,10 +4614,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4616,10 +4625,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -4631,19 +4640,19 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4668,13 +4677,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4692,25 +4701,25 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4719,7 +4728,7 @@
         <v>20</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4727,45 +4736,45 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4775,7 +4784,7 @@
         <v>20</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>20</v>
@@ -4790,13 +4799,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4814,45 +4823,45 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4860,34 +4869,34 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4936,34 +4945,34 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>20</v>
@@ -4971,10 +4980,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4982,10 +4991,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -4994,19 +5003,19 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5056,34 +5065,34 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>20</v>
@@ -5091,45 +5100,45 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5178,34 +5187,34 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -5213,45 +5222,45 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5300,34 +5309,34 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>20</v>
@@ -5335,10 +5344,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5346,10 +5355,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -5358,19 +5367,19 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5420,34 +5429,34 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
@@ -5455,10 +5464,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5466,10 +5475,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -5478,20 +5487,20 @@
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5540,34 +5549,34 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>20</v>
@@ -5575,10 +5584,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5586,34 +5595,34 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5662,19 +5671,19 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
@@ -5683,24 +5692,24 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5708,10 +5717,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -5723,19 +5732,19 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5760,13 +5769,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5784,19 +5793,19 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
@@ -5808,10 +5817,10 @@
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>20</v>
@@ -5819,21 +5828,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5845,19 +5854,19 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5882,13 +5891,13 @@
         <v>20</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>20</v>
@@ -5906,19 +5915,19 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
@@ -5927,24 +5936,24 @@
         <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5952,10 +5961,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5967,19 +5976,19 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6028,19 +6037,19 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
@@ -6052,10 +6061,10 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>20</v>
@@ -6063,10 +6072,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6074,10 +6083,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -6089,16 +6098,16 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6124,13 +6133,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -6148,19 +6157,19 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
@@ -6169,24 +6178,24 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6194,10 +6203,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -6209,16 +6218,16 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6268,19 +6277,19 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -6295,7 +6304,7 @@
         <v>20</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>20</v>
@@ -6303,10 +6312,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6314,10 +6323,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -6329,19 +6338,19 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6366,13 +6375,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -6390,19 +6399,19 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
@@ -6414,10 +6423,10 @@
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>20</v>
@@ -6425,10 +6434,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6436,10 +6445,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6451,16 +6460,16 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6510,19 +6519,19 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
@@ -6531,24 +6540,24 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6556,10 +6565,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -6571,16 +6580,16 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6630,19 +6639,19 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
@@ -6651,24 +6660,24 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6676,10 +6685,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6691,19 +6700,19 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6752,19 +6761,19 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
@@ -6776,10 +6785,10 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
@@ -6787,10 +6796,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6798,10 +6807,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6813,13 +6822,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6870,16 +6879,16 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>20</v>
@@ -6897,7 +6906,7 @@
         <v>20</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
@@ -6905,21 +6914,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6931,16 +6940,16 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6990,19 +6999,19 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -7017,7 +7026,7 @@
         <v>20</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>20</v>
@@ -7025,45 +7034,45 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7112,19 +7121,19 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -7139,7 +7148,7 @@
         <v>20</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>20</v>
@@ -7147,10 +7156,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7158,10 +7167,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -7173,13 +7182,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7230,19 +7239,19 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
@@ -7254,10 +7263,10 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>20</v>
@@ -7265,10 +7274,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7276,10 +7285,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -7291,13 +7300,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7348,19 +7357,19 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7372,10 +7381,10 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>20</v>
@@ -7383,10 +7392,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7394,10 +7403,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7409,13 +7418,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7442,13 +7451,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7466,19 +7475,19 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7490,10 +7499,10 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>20</v>
@@ -7501,10 +7510,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7512,10 +7521,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7527,19 +7536,19 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7564,13 +7573,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7588,19 +7597,19 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7609,13 +7618,13 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>20</v>
@@ -7623,10 +7632,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7634,10 +7643,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7649,19 +7658,19 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7686,13 +7695,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7710,34 +7719,34 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="AO48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>20</v>
@@ -7745,10 +7754,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7756,10 +7765,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7771,17 +7780,17 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7830,19 +7839,19 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -7857,7 +7866,7 @@
         <v>20</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>20</v>
@@ -7865,10 +7874,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7876,10 +7885,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7891,13 +7900,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7948,19 +7957,19 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -7972,10 +7981,10 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>20</v>
@@ -7983,10 +7992,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7994,10 +8003,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -8006,19 +8015,19 @@
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8068,19 +8077,19 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -8092,10 +8101,10 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>20</v>
@@ -8103,10 +8112,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8114,10 +8123,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -8126,19 +8135,19 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8188,34 +8197,34 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="AO52" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>20</v>
@@ -8223,10 +8232,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8234,10 +8243,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -8246,22 +8255,22 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8310,19 +8319,19 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8334,10 +8343,10 @@
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>20</v>
@@ -8345,10 +8354,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8356,10 +8365,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -8371,13 +8380,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8428,16 +8437,16 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>20</v>
@@ -8455,7 +8464,7 @@
         <v>20</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>20</v>
@@ -8463,21 +8472,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8489,16 +8498,16 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8548,19 +8557,19 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
@@ -8575,7 +8584,7 @@
         <v>20</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>20</v>
@@ -8583,45 +8592,45 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8670,19 +8679,19 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
@@ -8697,7 +8706,7 @@
         <v>20</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>20</v>
@@ -8705,10 +8714,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8716,10 +8725,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -8728,22 +8737,22 @@
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8768,13 +8777,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8792,34 +8801,34 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>20</v>
@@ -8827,10 +8836,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8838,10 +8847,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8850,22 +8859,22 @@
         <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>318</v>
+        <v>485</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -8914,19 +8923,19 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
@@ -8935,24 +8944,24 @@
         <v>20</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8960,10 +8969,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -8975,19 +8984,19 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9012,13 +9021,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -9036,19 +9045,19 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
@@ -9060,10 +9069,10 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>20</v>
@@ -9071,21 +9080,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -9097,19 +9106,19 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9134,13 +9143,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -9158,19 +9167,19 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
@@ -9179,24 +9188,24 @@
         <v>20</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9204,10 +9213,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -9219,19 +9228,19 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9280,19 +9289,19 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
@@ -9304,10 +9313,10 @@
         <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for recording the patient’s age at the time of stroke onset as a simple integer value in years. The Observation.code is fixed to the SNOMED CT observable entity “Age at onset of clinical finding,” ensuring a clear and interoperable semantic meaning.
-The age at onset may be derived from date of birth and an onset/reference timepoint (e.g., symptom onset, last known well, or discovery time depending on local policy). This profile records the resulting age value, not the derivation method; if the derivation is clinically important, implementers should capture the underlying reference timepoint(s) and provenance separately.</t>
+    <t>Profile for recording the patient’s age at the time of stroke onset as an integer value in years.
+**Primary use-case**
+- Provides a computable attribute commonly used in etiologic assessment, risk stratification, and registry datasets.
+**Modeling note**
+- The age may be derived from DOB and an onset reference (symptom onset, last-known-well, discovery time).
+  This profile records the resulting age value, not the derivation method; capture provenance separately if needed.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-age-at-onset-observation-profile.xlsx
+++ b/StructureDefinition-age-at-onset-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
